--- a/тесты модуль 4_2.xlsx
+++ b/тесты модуль 4_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Аспект</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Столбец1</t>
-  </si>
-  <si>
     <t>Пустой массив</t>
   </si>
   <si>
@@ -115,6 +112,36 @@
   </si>
   <si>
     <t>[1, 1, 1 ,1 ,1, 1]</t>
+  </si>
+  <si>
+    <t>Корректность нахождения факториала числа</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5</t>
+  </si>
+  <si>
+    <t>1; 3; 6; 10; 15</t>
+  </si>
+  <si>
+    <t>Ввод числа</t>
+  </si>
+  <si>
+    <t>Ввод нуля</t>
+  </si>
+  <si>
+    <t>Ввод числа меньше нуля</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Ввод большого числа</t>
+  </si>
+  <si>
+    <t>Большое число</t>
+  </si>
+  <si>
+    <t>Ввод не числа</t>
   </si>
 </sst>
 </file>
@@ -167,16 +194,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:H11" totalsRowShown="0">
-  <autoFilter ref="B2:H11"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:G11" totalsRowShown="0">
+  <autoFilter ref="B2:G11"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Идентификатор теста"/>
     <tableColumn id="2" name="Аспект тестирования"/>
     <tableColumn id="3" name="Описание теста"/>
     <tableColumn id="4" name="Входные данные"/>
     <tableColumn id="5" name="Шаги выполнения"/>
     <tableColumn id="6" name="Ожидаемый результат"/>
-    <tableColumn id="7" name="Столбец1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="B14:G19" totalsRowShown="0">
+  <autoFilter ref="B14:G19"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Идентификатор теста"/>
+    <tableColumn id="2" name="Аспект тестирования"/>
+    <tableColumn id="3" name="Описание теста"/>
+    <tableColumn id="4" name="Входные данные"/>
+    <tableColumn id="5" name="Шаги выполнения"/>
+    <tableColumn id="6" name="Ожидаемый результат"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +546,22 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -512,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +586,7 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -548,11 +605,8 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -560,16 +614,16 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -577,16 +631,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -594,13 +648,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -608,16 +662,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="G6">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -625,16 +679,16 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -642,16 +696,16 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -659,16 +713,16 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -676,16 +730,16 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -693,20 +747,126 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
       <c r="G11">
         <v>0.1666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
